--- a/16S/Qiime_Deblur/Exports/Taxonomy Step 11/AllSamples/level-7.xlsx
+++ b/16S/Qiime_Deblur/Exports/Taxonomy Step 11/AllSamples/level-7.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merca\Desktop\diadema_ajmc2020\16S\Qiime_Deblur\Exports\Taxonomy Step 11\AllSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0A9A4CB0-F6E9-418A-88C1-E3C7B21F9B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F2307-2A80-482F-89A3-8D4DD1E9E114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696"/>
+    <workbookView xWindow="-21720" yWindow="12435" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level-7" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="133">
   <si>
     <t>index</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>Rhizobium daejeonense</t>
-  </si>
-  <si>
-    <t>Betaproteobacteria;</t>
   </si>
   <si>
     <t>Alcaligenaceae</t>
@@ -427,7 +424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,6 +1028,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE5D7FD"/>
+      <color rgb="FFA5A1F9"/>
+      <color rgb="FF4055EE"/>
+      <color rgb="FFA3ADF7"/>
+      <color rgb="FFA1E4F9"/>
+      <color rgb="FF1489A4"/>
+      <color rgb="FF6DE5E5"/>
+      <color rgb="FF62D1F4"/>
+      <color rgb="FF12BAEE"/>
+      <color rgb="FF0D88AF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1089,10 +1100,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1397,10 +1405,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="E5D7FD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1705,10 +1710,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="A5A1F9"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2013,10 +2015,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="4055EE"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2321,10 +2320,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="A3ADF7"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2622,16 +2618,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Betaproteobacteria;</c:v>
+                  <c:v>Betaproteobacteria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="A1E4F9"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2936,9 +2930,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="1489A4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3243,9 +3235,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="6DE5E5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3550,9 +3540,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="3782CD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3857,9 +3845,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="355DA5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4165,7 +4151,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4471,7 +4457,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="ECDFF5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4776,7 +4762,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="CBA9E5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5081,7 +5067,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="9E5ECE"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5386,7 +5372,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5691,7 +5677,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6435,8 +6421,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.87744589049590005"/>
-          <c:y val="8.0622979180767478E-3"/>
+          <c:x val="0.87649911952656157"/>
+          <c:y val="1.176596675415573E-2"/>
           <c:w val="0.12255410950409995"/>
           <c:h val="0.98591566606668102"/>
         </c:manualLayout>
@@ -7056,16 +7042,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3286124</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7389,11 +7375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7418,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>107</v>
@@ -7451,22 +7437,22 @@
         <v>116</v>
       </c>
       <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
         <v>117</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>121</v>
-      </c>
-      <c r="R1" t="s">
-        <v>122</v>
       </c>
       <c r="S1" t="s">
         <v>1</v>
@@ -10988,7 +10974,7 @@
     </row>
     <row r="51" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.55000000000000004">
@@ -11008,7 +10994,7 @@
     <row r="54" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H54" s="3"/>
       <c r="I54" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>109</v>
@@ -11083,7 +11069,7 @@
         <v>114</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>116</v>
@@ -11092,7 +11078,7 @@
     <row r="62" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H62" s="6"/>
       <c r="I62" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -11102,17 +11088,17 @@
       <c r="H63" s="6"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L63" s="6"/>
     </row>
     <row r="64" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H64" s="6"/>
       <c r="I64" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -11122,17 +11108,17 @@
       <c r="H65" s="6"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H66" s="6"/>
       <c r="I66" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -11140,19 +11126,19 @@
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K67" s="5" t="s">
+      <c r="L67" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
